--- a/wiki/DAOB.xlsx
+++ b/wiki/DAOB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DAOB\wiki\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740" activeTab="1"/>
   </bookViews>
@@ -11,14 +16,41 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>mới</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>Đã xác nhận</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Đã khám</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>Hủy</t>
   </si>
 </sst>
 </file>
@@ -65,6 +97,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +274,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="5172075" y="1647824"/>
-            <a:ext cx="1838325" cy="922599"/>
+            <a:ext cx="1838325" cy="1504614"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -272,35 +307,35 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> sĩ: ABC</a:t>
+              <a:t> sĩ: ABC (doctor.displayName)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Nơi khám: bệnh viện XYZ</a:t>
+              <a:t>Nơi khám: bệnh viện XYZ (location)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Ngày khám: 15/12/2014</a:t>
+              <a:t>Ngày khám: 15/12/2014 (meetingDate)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Giờ khám: 10:00</a:t>
+              <a:t>Giờ khám: 10:00 (startTime)</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Trạng thái: Đã xác nhận</a:t>
+              <a:t>Trạng thái: Đã xác nhận (status) </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
@@ -313,7 +348,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5181600" y="2657787"/>
+            <a:off x="5181600" y="3265478"/>
             <a:ext cx="1838325" cy="922599"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2388,7 +2423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2423,7 +2458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2646,14 +2681,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G43"/>
+  <dimension ref="G25:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>0</v>
